--- a/analyses/supp/TableS3-DeSeq2-sbi-SFs.xlsx
+++ b/analyses/supp/TableS3-DeSeq2-sbi-SFs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t xml:space="preserve">gene</t>
   </si>
@@ -35,13 +35,7 @@
     <t xml:space="preserve">padj</t>
   </si>
   <si>
-    <t xml:space="preserve">Significant</t>
-  </si>
-  <si>
     <t xml:space="preserve">HNRNPA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P-Adj &lt; 0.05</t>
   </si>
   <si>
     <t xml:space="preserve">PABPC1</t>
@@ -608,13 +602,10 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
         <v>24968.6241078584</v>
@@ -634,13 +625,10 @@
       <c r="G2" t="n">
         <v>0.0423661772855389</v>
       </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
         <v>22176.5413974474</v>
@@ -660,13 +648,10 @@
       <c r="G3" t="n">
         <v>0.00140855138871232</v>
       </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
         <v>28745.1410134979</v>
@@ -686,13 +671,10 @@
       <c r="G4" t="n">
         <v>0.0228122803472631</v>
       </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
         <v>17682.291500198</v>
@@ -712,13 +694,10 @@
       <c r="G5" t="n">
         <v>0.017401077136305</v>
       </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
         <v>18063.2470982188</v>
@@ -738,13 +717,10 @@
       <c r="G6" t="n">
         <v>0.00000000000147267534690171</v>
       </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
         <v>16868.4424658886</v>
@@ -764,13 +740,10 @@
       <c r="G7" t="n">
         <v>0.0000277487523921425</v>
       </c>
-      <c r="H7" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
         <v>10694.3900643543</v>
@@ -790,13 +763,10 @@
       <c r="G8" t="n">
         <v>0.0282128214710956</v>
       </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
         <v>12378.2063338046</v>
@@ -816,13 +786,10 @@
       <c r="G9" t="n">
         <v>0.0014933368302923</v>
       </c>
-      <c r="H9" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
         <v>12014.187561198</v>
@@ -842,13 +809,10 @@
       <c r="G10" t="n">
         <v>0.00000000000147267534690171</v>
       </c>
-      <c r="H10" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
         <v>9722.35651324658</v>
@@ -868,13 +832,10 @@
       <c r="G11" t="n">
         <v>0.00101259393597574</v>
       </c>
-      <c r="H11" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
         <v>7867.79320071185</v>
@@ -894,13 +855,10 @@
       <c r="G12" t="n">
         <v>0.000000080098528443553</v>
       </c>
-      <c r="H12" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="n">
         <v>7442.06678688772</v>
@@ -920,13 +878,10 @@
       <c r="G13" t="n">
         <v>0.000267116841316364</v>
       </c>
-      <c r="H13" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" t="n">
         <v>7975.03946751331</v>
@@ -946,13 +901,10 @@
       <c r="G14" t="n">
         <v>0.00000743009008785153</v>
       </c>
-      <c r="H14" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" t="n">
         <v>5928.03824796023</v>
@@ -972,13 +924,10 @@
       <c r="G15" t="n">
         <v>0.00000585713664717713</v>
       </c>
-      <c r="H15" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" t="n">
         <v>7113.30554485757</v>
@@ -998,13 +947,10 @@
       <c r="G16" t="n">
         <v>0.00000228344290384427</v>
       </c>
-      <c r="H16" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" t="n">
         <v>5065.35567788628</v>
@@ -1024,13 +970,10 @@
       <c r="G17" t="n">
         <v>0.0014933368302923</v>
       </c>
-      <c r="H17" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="n">
         <v>10910.0069563415</v>
@@ -1050,13 +993,10 @@
       <c r="G18" t="n">
         <v>0.000000000129916226353876</v>
       </c>
-      <c r="H18" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19" t="n">
         <v>4552.32756810648</v>
@@ -1076,13 +1016,10 @@
       <c r="G19" t="n">
         <v>0.000454872203300428</v>
       </c>
-      <c r="H19" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" t="n">
         <v>7421.32478438409</v>
@@ -1102,13 +1039,10 @@
       <c r="G20" t="n">
         <v>0.00000039343247048877</v>
       </c>
-      <c r="H20" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" t="n">
         <v>6068.53465385705</v>
@@ -1128,13 +1062,10 @@
       <c r="G21" t="n">
         <v>0.000226628496037158</v>
       </c>
-      <c r="H21" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" t="n">
         <v>5948.64868675816</v>
@@ -1154,13 +1085,10 @@
       <c r="G22" t="n">
         <v>0.00000601479841217987</v>
       </c>
-      <c r="H22" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23" t="n">
         <v>6597.94265024403</v>
@@ -1180,13 +1108,10 @@
       <c r="G23" t="n">
         <v>0.0172211286424684</v>
       </c>
-      <c r="H23" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B24" t="n">
         <v>7722.32463345544</v>
@@ -1206,13 +1131,10 @@
       <c r="G24" t="n">
         <v>0.0100973894674831</v>
       </c>
-      <c r="H24" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B25" t="n">
         <v>7341.44913312977</v>
@@ -1232,13 +1154,10 @@
       <c r="G25" t="n">
         <v>0.0389095117852839</v>
       </c>
-      <c r="H25" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B26" t="n">
         <v>4839.47620389338</v>
@@ -1258,13 +1177,10 @@
       <c r="G26" t="n">
         <v>0.000000316487169737435</v>
       </c>
-      <c r="H26" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B27" t="n">
         <v>5143.91766462216</v>
@@ -1284,13 +1200,10 @@
       <c r="G27" t="n">
         <v>0.000124361918226774</v>
       </c>
-      <c r="H27" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B28" t="n">
         <v>5804.13338640224</v>
@@ -1310,13 +1223,10 @@
       <c r="G28" t="n">
         <v>0.00265049472701789</v>
       </c>
-      <c r="H28" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B29" t="n">
         <v>6824.09156883885</v>
@@ -1336,13 +1246,10 @@
       <c r="G29" t="n">
         <v>0.00113607058052435</v>
       </c>
-      <c r="H29" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30" t="n">
         <v>8028.45649066438</v>
@@ -1362,13 +1269,10 @@
       <c r="G30" t="n">
         <v>0.0000619148164599277</v>
       </c>
-      <c r="H30" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B31" t="n">
         <v>5094.21505624405</v>
@@ -1388,13 +1292,10 @@
       <c r="G31" t="n">
         <v>0.0398660856742155</v>
       </c>
-      <c r="H31" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B32" t="n">
         <v>5494.79595373505</v>
@@ -1414,13 +1315,10 @@
       <c r="G32" t="n">
         <v>0.00110595429207558</v>
       </c>
-      <c r="H32" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B33" t="n">
         <v>7574.89800136381</v>
@@ -1440,13 +1338,10 @@
       <c r="G33" t="n">
         <v>0.00315199618703575</v>
       </c>
-      <c r="H33" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B34" t="n">
         <v>6453.66420766663</v>
@@ -1466,13 +1361,10 @@
       <c r="G34" t="n">
         <v>0.00000190067483451085</v>
       </c>
-      <c r="H34" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B35" t="n">
         <v>4912.31615810132</v>
@@ -1492,13 +1384,10 @@
       <c r="G35" t="n">
         <v>0.00000000202828435211985</v>
       </c>
-      <c r="H35" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B36" t="n">
         <v>7204.36998457604</v>
@@ -1518,13 +1407,10 @@
       <c r="G36" t="n">
         <v>0.00000228344290384427</v>
       </c>
-      <c r="H36" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B37" t="n">
         <v>4573.79504966062</v>
@@ -1544,13 +1430,10 @@
       <c r="G37" t="n">
         <v>0.0467135801546254</v>
       </c>
-      <c r="H37" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B38" t="n">
         <v>2412.99502133319</v>
@@ -1570,13 +1453,10 @@
       <c r="G38" t="n">
         <v>0.0000236620751938487</v>
       </c>
-      <c r="H38" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B39" t="n">
         <v>4038.42859088345</v>
@@ -1596,13 +1476,10 @@
       <c r="G39" t="n">
         <v>0.000000000652194538446353</v>
       </c>
-      <c r="H39" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B40" t="n">
         <v>5835.58749462129</v>
@@ -1622,13 +1499,10 @@
       <c r="G40" t="n">
         <v>0.00140855138871232</v>
       </c>
-      <c r="H40" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B41" t="n">
         <v>4170.21713076279</v>
@@ -1648,13 +1522,10 @@
       <c r="G41" t="n">
         <v>0.0107061435230382</v>
       </c>
-      <c r="H41" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B42" t="n">
         <v>5517.36836535035</v>
@@ -1674,13 +1545,10 @@
       <c r="G42" t="n">
         <v>0.0113071616525555</v>
       </c>
-      <c r="H42" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B43" t="n">
         <v>4524.55274794091</v>
@@ -1700,13 +1568,10 @@
       <c r="G43" t="n">
         <v>0.0040127042364116</v>
       </c>
-      <c r="H43" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B44" t="n">
         <v>5718.13481671794</v>
@@ -1726,13 +1591,10 @@
       <c r="G44" t="n">
         <v>0.00000039343247048877</v>
       </c>
-      <c r="H44" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B45" t="n">
         <v>3665.2874015089</v>
@@ -1752,13 +1614,10 @@
       <c r="G45" t="n">
         <v>0.0000460180299940235</v>
       </c>
-      <c r="H45" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B46" t="n">
         <v>4160.83036648629</v>
@@ -1778,13 +1637,10 @@
       <c r="G46" t="n">
         <v>0.000000000000272380131809091</v>
       </c>
-      <c r="H46" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B47" t="n">
         <v>4246.01137113803</v>
@@ -1804,13 +1660,10 @@
       <c r="G47" t="n">
         <v>0.0001700903936038</v>
       </c>
-      <c r="H47" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B48" t="n">
         <v>2994.6279516052</v>
@@ -1830,13 +1683,10 @@
       <c r="G48" t="n">
         <v>0.00000409209731918005</v>
       </c>
-      <c r="H48" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B49" t="n">
         <v>4251.60378885152</v>
@@ -1856,13 +1706,10 @@
       <c r="G49" t="n">
         <v>0.0000059294714056133</v>
       </c>
-      <c r="H49" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B50" t="n">
         <v>3261.91806081064</v>
@@ -1882,13 +1729,10 @@
       <c r="G50" t="n">
         <v>0.0190683891933782</v>
       </c>
-      <c r="H50" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B51" t="n">
         <v>2232.43699437358</v>
@@ -1908,13 +1752,10 @@
       <c r="G51" t="n">
         <v>0.000050499594025119</v>
       </c>
-      <c r="H51" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B52" t="n">
         <v>2277.38495617882</v>
@@ -1934,13 +1775,10 @@
       <c r="G52" t="n">
         <v>0.00000000000147267534690171</v>
       </c>
-      <c r="H52" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B53" t="n">
         <v>2558.2699326899</v>
@@ -1960,13 +1798,10 @@
       <c r="G53" t="n">
         <v>0.00180697091977004</v>
       </c>
-      <c r="H53" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B54" t="n">
         <v>3268.40037114691</v>
@@ -1986,13 +1821,10 @@
       <c r="G54" t="n">
         <v>0.000113913504481872</v>
       </c>
-      <c r="H54" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B55" t="n">
         <v>2899.58345081098</v>
@@ -2012,13 +1844,10 @@
       <c r="G55" t="n">
         <v>0.000223735898925909</v>
       </c>
-      <c r="H55" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B56" t="n">
         <v>2836.77752043672</v>
@@ -2038,13 +1867,10 @@
       <c r="G56" t="n">
         <v>0.00000349184319205311</v>
       </c>
-      <c r="H56" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B57" t="n">
         <v>1242.58435926881</v>
@@ -2064,13 +1890,10 @@
       <c r="G57" t="n">
         <v>0.000000375804089821317</v>
       </c>
-      <c r="H57" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B58" t="n">
         <v>1942.48436562077</v>
@@ -2090,13 +1913,10 @@
       <c r="G58" t="n">
         <v>0.00350038877558564</v>
       </c>
-      <c r="H58" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B59" t="n">
         <v>4258.07485505037</v>
@@ -2116,13 +1936,10 @@
       <c r="G59" t="n">
         <v>0.00000185822379721959</v>
       </c>
-      <c r="H59" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B60" t="n">
         <v>2183.74655527119</v>
@@ -2142,13 +1959,10 @@
       <c r="G60" t="n">
         <v>0.0000000000150053970790005</v>
       </c>
-      <c r="H60" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B61" t="n">
         <v>2237.0854131929</v>
@@ -2168,13 +1982,10 @@
       <c r="G61" t="n">
         <v>0.0488230260471006</v>
       </c>
-      <c r="H61" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B62" t="n">
         <v>1763.9014050878</v>
@@ -2194,13 +2005,10 @@
       <c r="G62" t="n">
         <v>0.000123222855579679</v>
       </c>
-      <c r="H62" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B63" t="n">
         <v>2259.07753671703</v>
@@ -2220,13 +2028,10 @@
       <c r="G63" t="n">
         <v>0.00118026918613239</v>
       </c>
-      <c r="H63" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B64" t="n">
         <v>1660.25201969729</v>
@@ -2246,13 +2051,10 @@
       <c r="G64" t="n">
         <v>0.0190683891933782</v>
       </c>
-      <c r="H64" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B65" t="n">
         <v>729.361896713802</v>
@@ -2272,13 +2074,10 @@
       <c r="G65" t="n">
         <v>0.0112109878002005</v>
       </c>
-      <c r="H65" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B66" t="n">
         <v>152.083835352422</v>
@@ -2298,13 +2097,10 @@
       <c r="G66" t="n">
         <v>0.0000000000184238458616008</v>
       </c>
-      <c r="H66" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B67" t="n">
         <v>745.592804210546</v>
@@ -2324,13 +2120,10 @@
       <c r="G67" t="n">
         <v>0.0122871321892578</v>
       </c>
-      <c r="H67" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B68" t="n">
         <v>696.71540719165</v>
@@ -2350,13 +2143,10 @@
       <c r="G68" t="n">
         <v>0.0303536603497584</v>
       </c>
-      <c r="H68" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B69" t="n">
         <v>1049.52654162162</v>
@@ -2376,13 +2166,10 @@
       <c r="G69" t="n">
         <v>0.0000000602869938553263</v>
       </c>
-      <c r="H69" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B70" t="n">
         <v>1054.42349218569</v>
@@ -2402,13 +2189,10 @@
       <c r="G70" t="n">
         <v>0.0364794465238103</v>
       </c>
-      <c r="H70" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B71" t="n">
         <v>903.384548178115</v>
@@ -2428,13 +2212,10 @@
       <c r="G71" t="n">
         <v>0.00000503754901640931</v>
       </c>
-      <c r="H71" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B72" t="n">
         <v>1079.68552947688</v>
@@ -2454,13 +2235,10 @@
       <c r="G72" t="n">
         <v>0.00116109322462459</v>
       </c>
-      <c r="H72" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B73" t="n">
         <v>332.527634929455</v>
@@ -2479,9 +2257,6 @@
       </c>
       <c r="G73" t="n">
         <v>0.00000743009008785153</v>
-      </c>
-      <c r="H73" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
